--- a/document/密文与base64对应关系.xlsx
+++ b/document/密文与base64对应关系.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>‘=</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,37 @@
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lEn7og==</t>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用key32-2加密得密文 2487876514</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AW41"/>
+  <dimension ref="A2:AW63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1633,7 +1664,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>2487876514</v>
+      </c>
+    </row>
     <row r="37" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
@@ -1685,7 +1731,9 @@
       <c r="AV37" s="4"/>
     </row>
     <row r="38" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="2">
+        <v>148</v>
+      </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1693,7 +1741,9 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="2"/>
+      <c r="I38" s="2">
+        <v>73</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -1701,7 +1751,9 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="2"/>
+      <c r="Q38" s="2">
+        <v>251</v>
+      </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
@@ -1709,7 +1761,9 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="4"/>
-      <c r="Y38" s="2"/>
+      <c r="Y38" s="2">
+        <v>162</v>
+      </c>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
@@ -1735,100 +1789,212 @@
       <c r="AV38" s="4"/>
     </row>
     <row r="39" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
-      <c r="AU39" s="1"/>
-      <c r="AV39" s="1"/>
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1</v>
+      </c>
+      <c r="R39" s="1">
+        <v>1</v>
+      </c>
+      <c r="S39" s="1">
+        <v>1</v>
+      </c>
+      <c r="T39" s="1">
+        <v>1</v>
+      </c>
+      <c r="U39" s="1">
+        <v>1</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>1</v>
+      </c>
+      <c r="X39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="1">
+        <v>0</v>
+      </c>
       <c r="AW39" s="1"/>
     </row>
     <row r="40" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
+      <c r="A40" s="2">
+        <v>37</v>
+      </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="2"/>
+      <c r="G40" s="2">
+        <v>4</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2"/>
+      <c r="M40" s="2">
+        <v>39</v>
+      </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="2"/>
+      <c r="S40" s="2">
+        <v>59</v>
+      </c>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="4"/>
-      <c r="Y40" s="2"/>
+      <c r="Y40" s="2">
+        <v>40</v>
+      </c>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="4"/>
-      <c r="AE40" s="2"/>
+      <c r="AE40" s="2">
+        <v>32</v>
+      </c>
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="4"/>
-      <c r="AK40" s="2"/>
+      <c r="AK40" s="2">
+        <v>0</v>
+      </c>
       <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
       <c r="AP40" s="4"/>
-      <c r="AQ40" s="2"/>
+      <c r="AQ40" s="2">
+        <v>0</v>
+      </c>
       <c r="AR40" s="3"/>
       <c r="AS40" s="3"/>
       <c r="AT40" s="3"/>
@@ -1839,49 +2005,65 @@
       </c>
     </row>
     <row r="41" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
+      <c r="A41" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2"/>
+      <c r="M41" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="2"/>
+      <c r="S41" s="2">
+        <v>7</v>
+      </c>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="4"/>
-      <c r="Y41" s="2"/>
+      <c r="Y41" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="4"/>
-      <c r="AE41" s="2"/>
+      <c r="AE41" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="4"/>
-      <c r="AK41" s="2"/>
+      <c r="AK41" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="AL41" s="3"/>
       <c r="AM41" s="3"/>
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
       <c r="AP41" s="4"/>
-      <c r="AQ41" s="2"/>
+      <c r="AQ41" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="AR41" s="3"/>
       <c r="AS41" s="3"/>
       <c r="AT41" s="3"/>
@@ -1891,8 +2073,580 @@
         <v>7</v>
       </c>
     </row>
+    <row r="46" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3"/>
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="4"/>
+      <c r="AO47" s="2"/>
+      <c r="AP47" s="3"/>
+      <c r="AQ47" s="3"/>
+      <c r="AR47" s="3"/>
+      <c r="AS47" s="3"/>
+      <c r="AT47" s="3"/>
+      <c r="AU47" s="3"/>
+      <c r="AV47" s="4"/>
+    </row>
+    <row r="48" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="4"/>
+      <c r="AO48" s="2"/>
+      <c r="AP48" s="3"/>
+      <c r="AQ48" s="3"/>
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="3"/>
+      <c r="AT48" s="3"/>
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="4"/>
+    </row>
+    <row r="49" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1"/>
+    </row>
+    <row r="50" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="4"/>
+      <c r="AK50" s="2"/>
+      <c r="AL50" s="3"/>
+      <c r="AM50" s="3"/>
+      <c r="AN50" s="3"/>
+      <c r="AO50" s="3"/>
+      <c r="AP50" s="4"/>
+      <c r="AQ50" s="2"/>
+      <c r="AR50" s="3"/>
+      <c r="AS50" s="3"/>
+      <c r="AT50" s="3"/>
+      <c r="AU50" s="3"/>
+      <c r="AV50" s="4"/>
+      <c r="AW50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="3"/>
+      <c r="AG51" s="3"/>
+      <c r="AH51" s="3"/>
+      <c r="AI51" s="3"/>
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="3"/>
+      <c r="AM51" s="3"/>
+      <c r="AN51" s="3"/>
+      <c r="AO51" s="3"/>
+      <c r="AP51" s="4"/>
+      <c r="AQ51" s="2"/>
+      <c r="AR51" s="3"/>
+      <c r="AS51" s="3"/>
+      <c r="AT51" s="3"/>
+      <c r="AU51" s="3"/>
+      <c r="AV51" s="4"/>
+      <c r="AW51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="4"/>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="3"/>
+      <c r="AI59" s="3"/>
+      <c r="AJ59" s="3"/>
+      <c r="AK59" s="3"/>
+      <c r="AL59" s="3"/>
+      <c r="AM59" s="3"/>
+      <c r="AN59" s="4"/>
+      <c r="AO59" s="2"/>
+      <c r="AP59" s="3"/>
+      <c r="AQ59" s="3"/>
+      <c r="AR59" s="3"/>
+      <c r="AS59" s="3"/>
+      <c r="AT59" s="3"/>
+      <c r="AU59" s="3"/>
+      <c r="AV59" s="4"/>
+    </row>
+    <row r="60" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="3"/>
+      <c r="AI60" s="3"/>
+      <c r="AJ60" s="3"/>
+      <c r="AK60" s="3"/>
+      <c r="AL60" s="3"/>
+      <c r="AM60" s="3"/>
+      <c r="AN60" s="4"/>
+      <c r="AO60" s="2"/>
+      <c r="AP60" s="3"/>
+      <c r="AQ60" s="3"/>
+      <c r="AR60" s="3"/>
+      <c r="AS60" s="3"/>
+      <c r="AT60" s="3"/>
+      <c r="AU60" s="3"/>
+      <c r="AV60" s="4"/>
+    </row>
+    <row r="61" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="1"/>
+      <c r="AO61" s="1"/>
+      <c r="AP61" s="1"/>
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="1"/>
+      <c r="AT61" s="1"/>
+      <c r="AU61" s="1"/>
+      <c r="AV61" s="1"/>
+      <c r="AW61" s="1"/>
+    </row>
+    <row r="62" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="3"/>
+      <c r="AD62" s="4"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="3"/>
+      <c r="AG62" s="3"/>
+      <c r="AH62" s="3"/>
+      <c r="AI62" s="3"/>
+      <c r="AJ62" s="4"/>
+      <c r="AK62" s="2"/>
+      <c r="AL62" s="3"/>
+      <c r="AM62" s="3"/>
+      <c r="AN62" s="3"/>
+      <c r="AO62" s="3"/>
+      <c r="AP62" s="4"/>
+      <c r="AQ62" s="2"/>
+      <c r="AR62" s="3"/>
+      <c r="AS62" s="3"/>
+      <c r="AT62" s="3"/>
+      <c r="AU62" s="3"/>
+      <c r="AV62" s="4"/>
+      <c r="AW62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
+      <c r="AD63" s="4"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="3"/>
+      <c r="AG63" s="3"/>
+      <c r="AH63" s="3"/>
+      <c r="AI63" s="3"/>
+      <c r="AJ63" s="4"/>
+      <c r="AK63" s="2"/>
+      <c r="AL63" s="3"/>
+      <c r="AM63" s="3"/>
+      <c r="AN63" s="3"/>
+      <c r="AO63" s="3"/>
+      <c r="AP63" s="4"/>
+      <c r="AQ63" s="2"/>
+      <c r="AR63" s="3"/>
+      <c r="AS63" s="3"/>
+      <c r="AT63" s="3"/>
+      <c r="AU63" s="3"/>
+      <c r="AV63" s="4"/>
+      <c r="AW63" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="168">
+    <mergeCell ref="AE62:AJ62"/>
+    <mergeCell ref="AK62:AP62"/>
+    <mergeCell ref="AQ62:AV62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="M63:R63"/>
+    <mergeCell ref="S63:X63"/>
+    <mergeCell ref="Y63:AD63"/>
+    <mergeCell ref="AE63:AJ63"/>
+    <mergeCell ref="AK63:AP63"/>
+    <mergeCell ref="AQ63:AV63"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="M62:R62"/>
+    <mergeCell ref="S62:X62"/>
+    <mergeCell ref="Y62:AD62"/>
+    <mergeCell ref="AO59:AV59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="I60:P60"/>
+    <mergeCell ref="Q60:X60"/>
+    <mergeCell ref="Y60:AF60"/>
+    <mergeCell ref="AG60:AN60"/>
+    <mergeCell ref="AO60:AV60"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="I59:P59"/>
+    <mergeCell ref="Q59:X59"/>
+    <mergeCell ref="Y59:AF59"/>
+    <mergeCell ref="AG59:AN59"/>
+    <mergeCell ref="AE50:AJ50"/>
+    <mergeCell ref="AK50:AP50"/>
+    <mergeCell ref="AQ50:AV50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="M51:R51"/>
+    <mergeCell ref="S51:X51"/>
+    <mergeCell ref="Y51:AD51"/>
+    <mergeCell ref="AE51:AJ51"/>
+    <mergeCell ref="AK51:AP51"/>
+    <mergeCell ref="AQ51:AV51"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:L50"/>
+    <mergeCell ref="M50:R50"/>
+    <mergeCell ref="S50:X50"/>
+    <mergeCell ref="Y50:AD50"/>
+    <mergeCell ref="AO47:AV47"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="I48:P48"/>
+    <mergeCell ref="Q48:X48"/>
+    <mergeCell ref="Y48:AF48"/>
+    <mergeCell ref="AG48:AN48"/>
+    <mergeCell ref="AO48:AV48"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="I47:P47"/>
+    <mergeCell ref="Q47:X47"/>
+    <mergeCell ref="Y47:AF47"/>
+    <mergeCell ref="AG47:AN47"/>
     <mergeCell ref="AE40:AJ40"/>
     <mergeCell ref="AK40:AP40"/>
     <mergeCell ref="AQ40:AV40"/>

--- a/document/密文与base64对应关系.xlsx
+++ b/document/密文与base64对应关系.xlsx
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AW63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/document/密文与base64对应关系.xlsx
+++ b/document/密文与base64对应关系.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C435C05-5458-448D-A9C8-E78272AFAD79}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -519,11 +520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AW63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AW63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -532,12 +533,13 @@
     <col min="49" max="49" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -587,7 +589,7 @@
       <c r="AU3" s="3"/>
       <c r="AV3" s="4"/>
     </row>
-    <row r="4" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>213</v>
       </c>
@@ -649,7 +651,7 @@
       <c r="AU4" s="3"/>
       <c r="AV4" s="4"/>
     </row>
-    <row r="5" spans="1:49" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" s="1" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -795,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>53</v>
       </c>
@@ -864,7 +866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -933,12 +935,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -990,7 +997,7 @@
       <c r="AU14" s="3"/>
       <c r="AV14" s="4"/>
     </row>
-    <row r="15" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>97</v>
       </c>
@@ -1042,7 +1049,7 @@
       <c r="AU15" s="3"/>
       <c r="AV15" s="4"/>
     </row>
-    <row r="16" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1141,7 +1148,7 @@
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
     </row>
-    <row r="17" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>24</v>
       </c>
@@ -1202,7 +1209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1263,7 +1270,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1271,7 +1283,7 @@
         <v>1264369199</v>
       </c>
     </row>
-    <row r="25" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1321,7 +1333,7 @@
       <c r="AU25" s="3"/>
       <c r="AV25" s="4"/>
     </row>
-    <row r="26" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>75</v>
       </c>
@@ -1379,7 +1391,7 @@
       <c r="AU26" s="3"/>
       <c r="AV26" s="4"/>
     </row>
-    <row r="27" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1526,7 +1538,7 @@
       </c>
       <c r="AW27" s="1"/>
     </row>
-    <row r="28" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>18</v>
       </c>
@@ -1595,7 +1607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
@@ -1664,6 +1676,10 @@
         <v>7</v>
       </c>
     </row>
+    <row r="30" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
@@ -2073,8 +2089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2124,7 +2139,7 @@
       <c r="AU47" s="3"/>
       <c r="AV47" s="4"/>
     </row>
-    <row r="48" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2174,7 +2189,7 @@
       <c r="AU48" s="3"/>
       <c r="AV48" s="4"/>
     </row>
-    <row r="49" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2225,7 +2240,7 @@
       <c r="AV49" s="1"/>
       <c r="AW49" s="1"/>
     </row>
-    <row r="50" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2278,7 +2293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2331,8 +2346,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2382,7 +2403,7 @@
       <c r="AU59" s="3"/>
       <c r="AV59" s="4"/>
     </row>
-    <row r="60" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2432,7 +2453,7 @@
       <c r="AU60" s="3"/>
       <c r="AV60" s="4"/>
     </row>
-    <row r="61" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2483,7 +2504,7 @@
       <c r="AV61" s="1"/>
       <c r="AW61" s="1"/>
     </row>
-    <row r="62" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2536,7 +2557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:49" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2591,146 +2612,10 @@
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="AE62:AJ62"/>
-    <mergeCell ref="AK62:AP62"/>
-    <mergeCell ref="AQ62:AV62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="M63:R63"/>
-    <mergeCell ref="S63:X63"/>
-    <mergeCell ref="Y63:AD63"/>
-    <mergeCell ref="AE63:AJ63"/>
-    <mergeCell ref="AK63:AP63"/>
-    <mergeCell ref="AQ63:AV63"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:L62"/>
-    <mergeCell ref="M62:R62"/>
-    <mergeCell ref="S62:X62"/>
-    <mergeCell ref="Y62:AD62"/>
-    <mergeCell ref="AO59:AV59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="I60:P60"/>
-    <mergeCell ref="Q60:X60"/>
-    <mergeCell ref="Y60:AF60"/>
-    <mergeCell ref="AG60:AN60"/>
-    <mergeCell ref="AO60:AV60"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="I59:P59"/>
-    <mergeCell ref="Q59:X59"/>
-    <mergeCell ref="Y59:AF59"/>
-    <mergeCell ref="AG59:AN59"/>
-    <mergeCell ref="AE50:AJ50"/>
-    <mergeCell ref="AK50:AP50"/>
-    <mergeCell ref="AQ50:AV50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="M51:R51"/>
-    <mergeCell ref="S51:X51"/>
-    <mergeCell ref="Y51:AD51"/>
-    <mergeCell ref="AE51:AJ51"/>
-    <mergeCell ref="AK51:AP51"/>
-    <mergeCell ref="AQ51:AV51"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:L50"/>
-    <mergeCell ref="M50:R50"/>
-    <mergeCell ref="S50:X50"/>
-    <mergeCell ref="Y50:AD50"/>
-    <mergeCell ref="AO47:AV47"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="I48:P48"/>
-    <mergeCell ref="Q48:X48"/>
-    <mergeCell ref="Y48:AF48"/>
-    <mergeCell ref="AG48:AN48"/>
-    <mergeCell ref="AO48:AV48"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="I47:P47"/>
-    <mergeCell ref="Q47:X47"/>
-    <mergeCell ref="Y47:AF47"/>
-    <mergeCell ref="AG47:AN47"/>
-    <mergeCell ref="AE40:AJ40"/>
-    <mergeCell ref="AK40:AP40"/>
-    <mergeCell ref="AQ40:AV40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="M41:R41"/>
-    <mergeCell ref="S41:X41"/>
-    <mergeCell ref="Y41:AD41"/>
-    <mergeCell ref="AE41:AJ41"/>
-    <mergeCell ref="AK41:AP41"/>
-    <mergeCell ref="AQ41:AV41"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="M40:R40"/>
-    <mergeCell ref="S40:X40"/>
-    <mergeCell ref="Y40:AD40"/>
-    <mergeCell ref="AO37:AV37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="I38:P38"/>
-    <mergeCell ref="Q38:X38"/>
-    <mergeCell ref="Y38:AF38"/>
-    <mergeCell ref="AG38:AN38"/>
-    <mergeCell ref="AO38:AV38"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="I37:P37"/>
-    <mergeCell ref="Q37:X37"/>
-    <mergeCell ref="Y37:AF37"/>
-    <mergeCell ref="AG37:AN37"/>
-    <mergeCell ref="AE28:AJ28"/>
-    <mergeCell ref="AK28:AP28"/>
-    <mergeCell ref="AQ28:AV28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:X29"/>
-    <mergeCell ref="Y29:AD29"/>
-    <mergeCell ref="AE29:AJ29"/>
-    <mergeCell ref="AK29:AP29"/>
-    <mergeCell ref="AQ29:AV29"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AD28"/>
-    <mergeCell ref="AO25:AV25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="I26:P26"/>
-    <mergeCell ref="Q26:X26"/>
-    <mergeCell ref="Y26:AF26"/>
-    <mergeCell ref="AG26:AN26"/>
-    <mergeCell ref="AO26:AV26"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="I25:P25"/>
-    <mergeCell ref="Q25:X25"/>
-    <mergeCell ref="Y25:AF25"/>
-    <mergeCell ref="AG25:AN25"/>
-    <mergeCell ref="AE17:AJ17"/>
-    <mergeCell ref="AK17:AP17"/>
-    <mergeCell ref="AQ17:AV17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:X18"/>
-    <mergeCell ref="Y18:AD18"/>
-    <mergeCell ref="AE18:AJ18"/>
-    <mergeCell ref="AK18:AP18"/>
-    <mergeCell ref="AQ18:AV18"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:X17"/>
-    <mergeCell ref="Y17:AD17"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:P15"/>
-    <mergeCell ref="Q15:X15"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="AG15:AN15"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:P14"/>
-    <mergeCell ref="Q14:X14"/>
-    <mergeCell ref="Y14:AF14"/>
-    <mergeCell ref="AG14:AN14"/>
+    <mergeCell ref="Y4:AF4"/>
+    <mergeCell ref="Y3:AF3"/>
+    <mergeCell ref="AG4:AN4"/>
+    <mergeCell ref="AG3:AN3"/>
     <mergeCell ref="AK6:AP6"/>
     <mergeCell ref="AQ6:AV6"/>
     <mergeCell ref="AK7:AP7"/>
@@ -2755,10 +2640,146 @@
     <mergeCell ref="AO4:AV4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="Q3:X3"/>
-    <mergeCell ref="Y4:AF4"/>
-    <mergeCell ref="Y3:AF3"/>
-    <mergeCell ref="AG4:AN4"/>
-    <mergeCell ref="AG3:AN3"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:P15"/>
+    <mergeCell ref="Q15:X15"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="AG15:AN15"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:P14"/>
+    <mergeCell ref="Q14:X14"/>
+    <mergeCell ref="Y14:AF14"/>
+    <mergeCell ref="AG14:AN14"/>
+    <mergeCell ref="AE17:AJ17"/>
+    <mergeCell ref="AK17:AP17"/>
+    <mergeCell ref="AQ17:AV17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="Y18:AD18"/>
+    <mergeCell ref="AE18:AJ18"/>
+    <mergeCell ref="AK18:AP18"/>
+    <mergeCell ref="AQ18:AV18"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:X17"/>
+    <mergeCell ref="Y17:AD17"/>
+    <mergeCell ref="AO25:AV25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="I26:P26"/>
+    <mergeCell ref="Q26:X26"/>
+    <mergeCell ref="Y26:AF26"/>
+    <mergeCell ref="AG26:AN26"/>
+    <mergeCell ref="AO26:AV26"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="I25:P25"/>
+    <mergeCell ref="Q25:X25"/>
+    <mergeCell ref="Y25:AF25"/>
+    <mergeCell ref="AG25:AN25"/>
+    <mergeCell ref="AE28:AJ28"/>
+    <mergeCell ref="AK28:AP28"/>
+    <mergeCell ref="AQ28:AV28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:X29"/>
+    <mergeCell ref="Y29:AD29"/>
+    <mergeCell ref="AE29:AJ29"/>
+    <mergeCell ref="AK29:AP29"/>
+    <mergeCell ref="AQ29:AV29"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AD28"/>
+    <mergeCell ref="AO37:AV37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="I38:P38"/>
+    <mergeCell ref="Q38:X38"/>
+    <mergeCell ref="Y38:AF38"/>
+    <mergeCell ref="AG38:AN38"/>
+    <mergeCell ref="AO38:AV38"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="I37:P37"/>
+    <mergeCell ref="Q37:X37"/>
+    <mergeCell ref="Y37:AF37"/>
+    <mergeCell ref="AG37:AN37"/>
+    <mergeCell ref="AE40:AJ40"/>
+    <mergeCell ref="AK40:AP40"/>
+    <mergeCell ref="AQ40:AV40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="M41:R41"/>
+    <mergeCell ref="S41:X41"/>
+    <mergeCell ref="Y41:AD41"/>
+    <mergeCell ref="AE41:AJ41"/>
+    <mergeCell ref="AK41:AP41"/>
+    <mergeCell ref="AQ41:AV41"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="M40:R40"/>
+    <mergeCell ref="S40:X40"/>
+    <mergeCell ref="Y40:AD40"/>
+    <mergeCell ref="AO47:AV47"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="I48:P48"/>
+    <mergeCell ref="Q48:X48"/>
+    <mergeCell ref="Y48:AF48"/>
+    <mergeCell ref="AG48:AN48"/>
+    <mergeCell ref="AO48:AV48"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="I47:P47"/>
+    <mergeCell ref="Q47:X47"/>
+    <mergeCell ref="Y47:AF47"/>
+    <mergeCell ref="AG47:AN47"/>
+    <mergeCell ref="AE50:AJ50"/>
+    <mergeCell ref="AK50:AP50"/>
+    <mergeCell ref="AQ50:AV50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="M51:R51"/>
+    <mergeCell ref="S51:X51"/>
+    <mergeCell ref="Y51:AD51"/>
+    <mergeCell ref="AE51:AJ51"/>
+    <mergeCell ref="AK51:AP51"/>
+    <mergeCell ref="AQ51:AV51"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:L50"/>
+    <mergeCell ref="M50:R50"/>
+    <mergeCell ref="S50:X50"/>
+    <mergeCell ref="Y50:AD50"/>
+    <mergeCell ref="AO59:AV59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="I60:P60"/>
+    <mergeCell ref="Q60:X60"/>
+    <mergeCell ref="Y60:AF60"/>
+    <mergeCell ref="AG60:AN60"/>
+    <mergeCell ref="AO60:AV60"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="I59:P59"/>
+    <mergeCell ref="Q59:X59"/>
+    <mergeCell ref="Y59:AF59"/>
+    <mergeCell ref="AG59:AN59"/>
+    <mergeCell ref="AE62:AJ62"/>
+    <mergeCell ref="AK62:AP62"/>
+    <mergeCell ref="AQ62:AV62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="M63:R63"/>
+    <mergeCell ref="S63:X63"/>
+    <mergeCell ref="Y63:AD63"/>
+    <mergeCell ref="AE63:AJ63"/>
+    <mergeCell ref="AK63:AP63"/>
+    <mergeCell ref="AQ63:AV63"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="M62:R62"/>
+    <mergeCell ref="S62:X62"/>
+    <mergeCell ref="Y62:AD62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2767,7 +2788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/document/密文与base64对应关系.xlsx
+++ b/document/密文与base64对应关系.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>‘=</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,48 @@
   </si>
   <si>
     <t>使用key32-2加密得密文 2487876514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m^e 三 C mod n 加密得密文数字C = 2567676841</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘163045475221504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密准备：将明文字符转成明文数字，每个字符如果长度不足8位则在前面补0。得明文数字01100001 01100010 01100011 01100100，即10进制的1633837924
+从私钥中获取 n、p、q、d、e 分别为
+n:2567676841
+p:51203
+q:50147
+d:2279660081
+e:65537</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密文数字2487876514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明文数字1633837924</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,8 +204,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,8 +233,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -222,11 +297,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,6 +322,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -520,16 +627,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AW63"/>
+  <dimension ref="A2:AW67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44:R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="48" width="4.625" customWidth="1"/>
-    <col min="49" max="49" width="36" customWidth="1"/>
+    <col min="49" max="49" width="48.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1681,7 +1788,9 @@
       </c>
     </row>
     <row r="37" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1689,7 +1798,9 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="2"/>
+      <c r="I37" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -1697,7 +1808,9 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="4"/>
-      <c r="Q37" s="2"/>
+      <c r="Q37" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
@@ -1705,7 +1818,9 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="4"/>
-      <c r="Y37" s="2"/>
+      <c r="Y37" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
@@ -1729,10 +1844,13 @@
       <c r="AT37" s="3"/>
       <c r="AU37" s="3"/>
       <c r="AV37" s="4"/>
+      <c r="AW37" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="38" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1742,7 +1860,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="4"/>
       <c r="I38" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -1752,7 +1870,7 @@
       <c r="O38" s="3"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="2">
-        <v>251</v>
+        <v>99</v>
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -1762,7 +1880,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="2">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
@@ -1787,517 +1905,564 @@
       <c r="AT38" s="3"/>
       <c r="AU38" s="3"/>
       <c r="AV38" s="4"/>
-    </row>
-    <row r="39" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>1</v>
-      </c>
-      <c r="N39" s="1">
-        <v>0</v>
-      </c>
-      <c r="O39" s="1">
-        <v>0</v>
-      </c>
-      <c r="P39" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>1</v>
-      </c>
-      <c r="R39" s="1">
-        <v>1</v>
-      </c>
-      <c r="S39" s="1">
-        <v>1</v>
-      </c>
-      <c r="T39" s="1">
-        <v>1</v>
-      </c>
-      <c r="U39" s="1">
-        <v>1</v>
-      </c>
-      <c r="V39" s="1">
-        <v>0</v>
-      </c>
-      <c r="W39" s="1">
-        <v>1</v>
-      </c>
-      <c r="X39" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW39" s="1"/>
-    </row>
-    <row r="40" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>37</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="2">
-        <v>4</v>
-      </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="2">
+      <c r="AW38" s="6"/>
+    </row>
+    <row r="39" spans="1:49" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="6"/>
+    </row>
+    <row r="40" spans="1:49" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="2">
-        <v>59</v>
-      </c>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="2">
-        <v>32</v>
-      </c>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3"/>
-      <c r="AH40" s="3"/>
-      <c r="AI40" s="3"/>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="3"/>
-      <c r="AM40" s="3"/>
-      <c r="AN40" s="3"/>
-      <c r="AO40" s="3"/>
-      <c r="AP40" s="4"/>
-      <c r="AQ40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="3"/>
-      <c r="AS40" s="3"/>
-      <c r="AT40" s="3"/>
-      <c r="AU40" s="3"/>
-      <c r="AV40" s="4"/>
-      <c r="AW40" t="s">
-        <v>8</v>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+      <c r="AW40" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="2">
-        <v>7</v>
-      </c>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF41" s="3"/>
-      <c r="AG41" s="3"/>
+      <c r="A41" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="2"/>
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
-      <c r="AJ41" s="4"/>
-      <c r="AK41" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
       <c r="AM41" s="3"/>
-      <c r="AN41" s="3"/>
-      <c r="AO41" s="3"/>
-      <c r="AP41" s="4"/>
-      <c r="AQ41" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="2"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
       <c r="AR41" s="3"/>
       <c r="AS41" s="3"/>
       <c r="AT41" s="3"/>
       <c r="AU41" s="3"/>
       <c r="AV41" s="4"/>
-      <c r="AW41" t="s">
+    </row>
+    <row r="42" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>148</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="2">
+        <v>73</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="2">
+        <v>251</v>
+      </c>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="2">
+        <v>162</v>
+      </c>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="2"/>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="3"/>
+      <c r="AR42" s="3"/>
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="4"/>
+    </row>
+    <row r="43" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>1</v>
+      </c>
+      <c r="B43" s="10">
+        <v>0</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0</v>
+      </c>
+      <c r="D43" s="10">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0</v>
+      </c>
+      <c r="I43" s="10">
+        <v>0</v>
+      </c>
+      <c r="J43" s="10">
+        <v>1</v>
+      </c>
+      <c r="K43" s="10">
+        <v>0</v>
+      </c>
+      <c r="L43" s="10">
+        <v>0</v>
+      </c>
+      <c r="M43" s="10">
+        <v>1</v>
+      </c>
+      <c r="N43" s="10">
+        <v>0</v>
+      </c>
+      <c r="O43" s="10">
+        <v>0</v>
+      </c>
+      <c r="P43" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="10">
+        <v>1</v>
+      </c>
+      <c r="R43" s="10">
+        <v>1</v>
+      </c>
+      <c r="S43" s="10">
+        <v>1</v>
+      </c>
+      <c r="T43" s="10">
+        <v>1</v>
+      </c>
+      <c r="U43" s="10">
+        <v>1</v>
+      </c>
+      <c r="V43" s="10">
+        <v>0</v>
+      </c>
+      <c r="W43" s="10">
+        <v>1</v>
+      </c>
+      <c r="X43" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>37</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="2">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="2">
+        <v>39</v>
+      </c>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="2">
+        <v>59</v>
+      </c>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="2">
+        <v>32</v>
+      </c>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
+      <c r="AP44" s="4"/>
+      <c r="AQ44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="4"/>
+      <c r="AW44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="3"/>
-      <c r="AF47" s="4"/>
-      <c r="AG47" s="2"/>
-      <c r="AH47" s="3"/>
-      <c r="AI47" s="3"/>
-      <c r="AJ47" s="3"/>
-      <c r="AK47" s="3"/>
-      <c r="AL47" s="3"/>
-      <c r="AM47" s="3"/>
-      <c r="AN47" s="4"/>
-      <c r="AO47" s="2"/>
-      <c r="AP47" s="3"/>
-      <c r="AQ47" s="3"/>
-      <c r="AR47" s="3"/>
-      <c r="AS47" s="3"/>
-      <c r="AT47" s="3"/>
-      <c r="AU47" s="3"/>
-      <c r="AV47" s="4"/>
-    </row>
-    <row r="48" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="4"/>
-      <c r="AG48" s="2"/>
-      <c r="AH48" s="3"/>
-      <c r="AI48" s="3"/>
-      <c r="AJ48" s="3"/>
-      <c r="AK48" s="3"/>
-      <c r="AL48" s="3"/>
-      <c r="AM48" s="3"/>
-      <c r="AN48" s="4"/>
-      <c r="AO48" s="2"/>
-      <c r="AP48" s="3"/>
-      <c r="AQ48" s="3"/>
-      <c r="AR48" s="3"/>
-      <c r="AS48" s="3"/>
-      <c r="AT48" s="3"/>
-      <c r="AU48" s="3"/>
-      <c r="AV48" s="4"/>
-    </row>
-    <row r="49" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="1"/>
-      <c r="AM49" s="1"/>
-      <c r="AN49" s="1"/>
-      <c r="AO49" s="1"/>
-      <c r="AP49" s="1"/>
-      <c r="AQ49" s="1"/>
-      <c r="AR49" s="1"/>
-      <c r="AS49" s="1"/>
-      <c r="AT49" s="1"/>
-      <c r="AU49" s="1"/>
-      <c r="AV49" s="1"/>
-      <c r="AW49" s="1"/>
-    </row>
-    <row r="50" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="4"/>
-      <c r="AE50" s="2"/>
-      <c r="AF50" s="3"/>
-      <c r="AG50" s="3"/>
-      <c r="AH50" s="3"/>
-      <c r="AI50" s="3"/>
-      <c r="AJ50" s="4"/>
-      <c r="AK50" s="2"/>
-      <c r="AL50" s="3"/>
-      <c r="AM50" s="3"/>
-      <c r="AN50" s="3"/>
-      <c r="AO50" s="3"/>
-      <c r="AP50" s="4"/>
-      <c r="AQ50" s="2"/>
-      <c r="AR50" s="3"/>
-      <c r="AS50" s="3"/>
-      <c r="AT50" s="3"/>
-      <c r="AU50" s="3"/>
-      <c r="AV50" s="4"/>
-      <c r="AW50" t="s">
-        <v>8</v>
-      </c>
-    </row>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
+      <c r="AP45" s="4"/>
+      <c r="AQ45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR45" s="3"/>
+      <c r="AS45" s="3"/>
+      <c r="AT45" s="3"/>
+      <c r="AU45" s="3"/>
+      <c r="AV45" s="4"/>
+      <c r="AW45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="2"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="2"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="2"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
@@ -2308,254 +2473,254 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
-      <c r="AD51" s="4"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="3"/>
-      <c r="AG51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="2"/>
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
-      <c r="AJ51" s="4"/>
-      <c r="AK51" s="2"/>
+      <c r="AJ51" s="3"/>
+      <c r="AK51" s="3"/>
       <c r="AL51" s="3"/>
       <c r="AM51" s="3"/>
-      <c r="AN51" s="3"/>
-      <c r="AO51" s="3"/>
-      <c r="AP51" s="4"/>
-      <c r="AQ51" s="2"/>
+      <c r="AN51" s="4"/>
+      <c r="AO51" s="2"/>
+      <c r="AP51" s="3"/>
+      <c r="AQ51" s="3"/>
       <c r="AR51" s="3"/>
       <c r="AS51" s="3"/>
       <c r="AT51" s="3"/>
       <c r="AU51" s="3"/>
       <c r="AV51" s="4"/>
-      <c r="AW51" t="s">
+    </row>
+    <row r="52" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="3"/>
+      <c r="AK52" s="3"/>
+      <c r="AL52" s="3"/>
+      <c r="AM52" s="3"/>
+      <c r="AN52" s="4"/>
+      <c r="AO52" s="2"/>
+      <c r="AP52" s="3"/>
+      <c r="AQ52" s="3"/>
+      <c r="AR52" s="3"/>
+      <c r="AS52" s="3"/>
+      <c r="AT52" s="3"/>
+      <c r="AU52" s="3"/>
+      <c r="AV52" s="4"/>
+    </row>
+    <row r="53" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="1"/>
+      <c r="AU53" s="1"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="1"/>
+    </row>
+    <row r="54" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="4"/>
+      <c r="AK54" s="2"/>
+      <c r="AL54" s="3"/>
+      <c r="AM54" s="3"/>
+      <c r="AN54" s="3"/>
+      <c r="AO54" s="3"/>
+      <c r="AP54" s="4"/>
+      <c r="AQ54" s="2"/>
+      <c r="AR54" s="3"/>
+      <c r="AS54" s="3"/>
+      <c r="AT54" s="3"/>
+      <c r="AU54" s="3"/>
+      <c r="AV54" s="4"/>
+      <c r="AW54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+      <c r="AH55" s="3"/>
+      <c r="AI55" s="3"/>
+      <c r="AJ55" s="4"/>
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="3"/>
+      <c r="AM55" s="3"/>
+      <c r="AN55" s="3"/>
+      <c r="AO55" s="3"/>
+      <c r="AP55" s="4"/>
+      <c r="AQ55" s="2"/>
+      <c r="AR55" s="3"/>
+      <c r="AS55" s="3"/>
+      <c r="AT55" s="3"/>
+      <c r="AU55" s="3"/>
+      <c r="AV55" s="4"/>
+      <c r="AW55" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="2"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="3"/>
-      <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
-      <c r="AF59" s="4"/>
-      <c r="AG59" s="2"/>
-      <c r="AH59" s="3"/>
-      <c r="AI59" s="3"/>
-      <c r="AJ59" s="3"/>
-      <c r="AK59" s="3"/>
-      <c r="AL59" s="3"/>
-      <c r="AM59" s="3"/>
-      <c r="AN59" s="4"/>
-      <c r="AO59" s="2"/>
-      <c r="AP59" s="3"/>
-      <c r="AQ59" s="3"/>
-      <c r="AR59" s="3"/>
-      <c r="AS59" s="3"/>
-      <c r="AT59" s="3"/>
-      <c r="AU59" s="3"/>
-      <c r="AV59" s="4"/>
-    </row>
-    <row r="60" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="3"/>
-      <c r="AC60" s="3"/>
-      <c r="AD60" s="3"/>
-      <c r="AE60" s="3"/>
-      <c r="AF60" s="4"/>
-      <c r="AG60" s="2"/>
-      <c r="AH60" s="3"/>
-      <c r="AI60" s="3"/>
-      <c r="AJ60" s="3"/>
-      <c r="AK60" s="3"/>
-      <c r="AL60" s="3"/>
-      <c r="AM60" s="3"/>
-      <c r="AN60" s="4"/>
-      <c r="AO60" s="2"/>
-      <c r="AP60" s="3"/>
-      <c r="AQ60" s="3"/>
-      <c r="AR60" s="3"/>
-      <c r="AS60" s="3"/>
-      <c r="AT60" s="3"/>
-      <c r="AU60" s="3"/>
-      <c r="AV60" s="4"/>
-    </row>
-    <row r="61" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
-      <c r="AB61" s="1"/>
-      <c r="AC61" s="1"/>
-      <c r="AD61" s="1"/>
-      <c r="AE61" s="1"/>
-      <c r="AF61" s="1"/>
-      <c r="AG61" s="1"/>
-      <c r="AH61" s="1"/>
-      <c r="AI61" s="1"/>
-      <c r="AJ61" s="1"/>
-      <c r="AK61" s="1"/>
-      <c r="AL61" s="1"/>
-      <c r="AM61" s="1"/>
-      <c r="AN61" s="1"/>
-      <c r="AO61" s="1"/>
-      <c r="AP61" s="1"/>
-      <c r="AQ61" s="1"/>
-      <c r="AR61" s="1"/>
-      <c r="AS61" s="1"/>
-      <c r="AT61" s="1"/>
-      <c r="AU61" s="1"/>
-      <c r="AV61" s="1"/>
-      <c r="AW61" s="1"/>
-    </row>
-    <row r="62" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="2"/>
-      <c r="Z62" s="3"/>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="3"/>
-      <c r="AC62" s="3"/>
-      <c r="AD62" s="4"/>
-      <c r="AE62" s="2"/>
-      <c r="AF62" s="3"/>
-      <c r="AG62" s="3"/>
-      <c r="AH62" s="3"/>
-      <c r="AI62" s="3"/>
-      <c r="AJ62" s="4"/>
-      <c r="AK62" s="2"/>
-      <c r="AL62" s="3"/>
-      <c r="AM62" s="3"/>
-      <c r="AN62" s="3"/>
-      <c r="AO62" s="3"/>
-      <c r="AP62" s="4"/>
-      <c r="AQ62" s="2"/>
-      <c r="AR62" s="3"/>
-      <c r="AS62" s="3"/>
-      <c r="AT62" s="3"/>
-      <c r="AU62" s="3"/>
-      <c r="AV62" s="4"/>
-      <c r="AW62" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="62" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="2"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="2"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="2"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
@@ -2566,103 +2731,236 @@
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
-      <c r="AD63" s="4"/>
-      <c r="AE63" s="2"/>
-      <c r="AF63" s="3"/>
-      <c r="AG63" s="3"/>
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="3"/>
+      <c r="AF63" s="4"/>
+      <c r="AG63" s="2"/>
       <c r="AH63" s="3"/>
       <c r="AI63" s="3"/>
-      <c r="AJ63" s="4"/>
-      <c r="AK63" s="2"/>
+      <c r="AJ63" s="3"/>
+      <c r="AK63" s="3"/>
       <c r="AL63" s="3"/>
       <c r="AM63" s="3"/>
-      <c r="AN63" s="3"/>
-      <c r="AO63" s="3"/>
-      <c r="AP63" s="4"/>
-      <c r="AQ63" s="2"/>
+      <c r="AN63" s="4"/>
+      <c r="AO63" s="2"/>
+      <c r="AP63" s="3"/>
+      <c r="AQ63" s="3"/>
       <c r="AR63" s="3"/>
       <c r="AS63" s="3"/>
       <c r="AT63" s="3"/>
       <c r="AU63" s="3"/>
       <c r="AV63" s="4"/>
-      <c r="AW63" t="s">
+    </row>
+    <row r="64" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="3"/>
+      <c r="AD64" s="3"/>
+      <c r="AE64" s="3"/>
+      <c r="AF64" s="4"/>
+      <c r="AG64" s="2"/>
+      <c r="AH64" s="3"/>
+      <c r="AI64" s="3"/>
+      <c r="AJ64" s="3"/>
+      <c r="AK64" s="3"/>
+      <c r="AL64" s="3"/>
+      <c r="AM64" s="3"/>
+      <c r="AN64" s="4"/>
+      <c r="AO64" s="2"/>
+      <c r="AP64" s="3"/>
+      <c r="AQ64" s="3"/>
+      <c r="AR64" s="3"/>
+      <c r="AS64" s="3"/>
+      <c r="AT64" s="3"/>
+      <c r="AU64" s="3"/>
+      <c r="AV64" s="4"/>
+    </row>
+    <row r="65" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="1"/>
+      <c r="AO65" s="1"/>
+      <c r="AP65" s="1"/>
+      <c r="AQ65" s="1"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="1"/>
+      <c r="AT65" s="1"/>
+      <c r="AU65" s="1"/>
+      <c r="AV65" s="1"/>
+      <c r="AW65" s="1"/>
+    </row>
+    <row r="66" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
+      <c r="AC66" s="3"/>
+      <c r="AD66" s="4"/>
+      <c r="AE66" s="2"/>
+      <c r="AF66" s="3"/>
+      <c r="AG66" s="3"/>
+      <c r="AH66" s="3"/>
+      <c r="AI66" s="3"/>
+      <c r="AJ66" s="4"/>
+      <c r="AK66" s="2"/>
+      <c r="AL66" s="3"/>
+      <c r="AM66" s="3"/>
+      <c r="AN66" s="3"/>
+      <c r="AO66" s="3"/>
+      <c r="AP66" s="4"/>
+      <c r="AQ66" s="2"/>
+      <c r="AR66" s="3"/>
+      <c r="AS66" s="3"/>
+      <c r="AT66" s="3"/>
+      <c r="AU66" s="3"/>
+      <c r="AV66" s="4"/>
+      <c r="AW66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="4"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
+      <c r="AH67" s="3"/>
+      <c r="AI67" s="3"/>
+      <c r="AJ67" s="4"/>
+      <c r="AK67" s="2"/>
+      <c r="AL67" s="3"/>
+      <c r="AM67" s="3"/>
+      <c r="AN67" s="3"/>
+      <c r="AO67" s="3"/>
+      <c r="AP67" s="4"/>
+      <c r="AQ67" s="2"/>
+      <c r="AR67" s="3"/>
+      <c r="AS67" s="3"/>
+      <c r="AT67" s="3"/>
+      <c r="AU67" s="3"/>
+      <c r="AV67" s="4"/>
+      <c r="AW67" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="AE62:AJ62"/>
-    <mergeCell ref="AK62:AP62"/>
-    <mergeCell ref="AQ62:AV62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="M63:R63"/>
-    <mergeCell ref="S63:X63"/>
-    <mergeCell ref="Y63:AD63"/>
-    <mergeCell ref="AE63:AJ63"/>
-    <mergeCell ref="AK63:AP63"/>
-    <mergeCell ref="AQ63:AV63"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:L62"/>
-    <mergeCell ref="M62:R62"/>
-    <mergeCell ref="S62:X62"/>
-    <mergeCell ref="Y62:AD62"/>
-    <mergeCell ref="AO59:AV59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="I60:P60"/>
-    <mergeCell ref="Q60:X60"/>
-    <mergeCell ref="Y60:AF60"/>
-    <mergeCell ref="AG60:AN60"/>
-    <mergeCell ref="AO60:AV60"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="I59:P59"/>
-    <mergeCell ref="Q59:X59"/>
-    <mergeCell ref="Y59:AF59"/>
-    <mergeCell ref="AG59:AN59"/>
-    <mergeCell ref="AE50:AJ50"/>
-    <mergeCell ref="AK50:AP50"/>
-    <mergeCell ref="AQ50:AV50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="M51:R51"/>
-    <mergeCell ref="S51:X51"/>
-    <mergeCell ref="Y51:AD51"/>
-    <mergeCell ref="AE51:AJ51"/>
-    <mergeCell ref="AK51:AP51"/>
-    <mergeCell ref="AQ51:AV51"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:L50"/>
-    <mergeCell ref="M50:R50"/>
-    <mergeCell ref="S50:X50"/>
-    <mergeCell ref="Y50:AD50"/>
-    <mergeCell ref="AO47:AV47"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="I48:P48"/>
-    <mergeCell ref="Q48:X48"/>
-    <mergeCell ref="Y48:AF48"/>
-    <mergeCell ref="AG48:AN48"/>
-    <mergeCell ref="AO48:AV48"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="I47:P47"/>
-    <mergeCell ref="Q47:X47"/>
-    <mergeCell ref="Y47:AF47"/>
-    <mergeCell ref="AG47:AN47"/>
-    <mergeCell ref="AE40:AJ40"/>
-    <mergeCell ref="AK40:AP40"/>
-    <mergeCell ref="AQ40:AV40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="M41:R41"/>
-    <mergeCell ref="S41:X41"/>
-    <mergeCell ref="Y41:AD41"/>
-    <mergeCell ref="AE41:AJ41"/>
-    <mergeCell ref="AK41:AP41"/>
-    <mergeCell ref="AQ41:AV41"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="M40:R40"/>
-    <mergeCell ref="S40:X40"/>
-    <mergeCell ref="Y40:AD40"/>
+  <mergeCells count="179">
+    <mergeCell ref="A40:AF40"/>
     <mergeCell ref="AO37:AV37"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="I38:P38"/>
@@ -2670,67 +2968,16 @@
     <mergeCell ref="Y38:AF38"/>
     <mergeCell ref="AG38:AN38"/>
     <mergeCell ref="AO38:AV38"/>
+    <mergeCell ref="AW37:AW39"/>
+    <mergeCell ref="Y4:AF4"/>
+    <mergeCell ref="Y3:AF3"/>
+    <mergeCell ref="AG4:AN4"/>
+    <mergeCell ref="AG3:AN3"/>
     <mergeCell ref="A37:H37"/>
     <mergeCell ref="I37:P37"/>
     <mergeCell ref="Q37:X37"/>
     <mergeCell ref="Y37:AF37"/>
     <mergeCell ref="AG37:AN37"/>
-    <mergeCell ref="AE28:AJ28"/>
-    <mergeCell ref="AK28:AP28"/>
-    <mergeCell ref="AQ28:AV28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:X29"/>
-    <mergeCell ref="Y29:AD29"/>
-    <mergeCell ref="AE29:AJ29"/>
-    <mergeCell ref="AK29:AP29"/>
-    <mergeCell ref="AQ29:AV29"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AD28"/>
-    <mergeCell ref="AO25:AV25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="I26:P26"/>
-    <mergeCell ref="Q26:X26"/>
-    <mergeCell ref="Y26:AF26"/>
-    <mergeCell ref="AG26:AN26"/>
-    <mergeCell ref="AO26:AV26"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="I25:P25"/>
-    <mergeCell ref="Q25:X25"/>
-    <mergeCell ref="Y25:AF25"/>
-    <mergeCell ref="AG25:AN25"/>
-    <mergeCell ref="AE17:AJ17"/>
-    <mergeCell ref="AK17:AP17"/>
-    <mergeCell ref="AQ17:AV17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:X18"/>
-    <mergeCell ref="Y18:AD18"/>
-    <mergeCell ref="AE18:AJ18"/>
-    <mergeCell ref="AK18:AP18"/>
-    <mergeCell ref="AQ18:AV18"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:X17"/>
-    <mergeCell ref="Y17:AD17"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:P15"/>
-    <mergeCell ref="Q15:X15"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="AG15:AN15"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:P14"/>
-    <mergeCell ref="Q14:X14"/>
-    <mergeCell ref="Y14:AF14"/>
-    <mergeCell ref="AG14:AN14"/>
     <mergeCell ref="AK6:AP6"/>
     <mergeCell ref="AQ6:AV6"/>
     <mergeCell ref="AK7:AP7"/>
@@ -2755,10 +3002,143 @@
     <mergeCell ref="AO4:AV4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="Q3:X3"/>
-    <mergeCell ref="Y4:AF4"/>
-    <mergeCell ref="Y3:AF3"/>
-    <mergeCell ref="AG4:AN4"/>
-    <mergeCell ref="AG3:AN3"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:P15"/>
+    <mergeCell ref="Q15:X15"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="AG15:AN15"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:P14"/>
+    <mergeCell ref="Q14:X14"/>
+    <mergeCell ref="Y14:AF14"/>
+    <mergeCell ref="AG14:AN14"/>
+    <mergeCell ref="AE17:AJ17"/>
+    <mergeCell ref="AK17:AP17"/>
+    <mergeCell ref="AQ17:AV17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="Y18:AD18"/>
+    <mergeCell ref="AE18:AJ18"/>
+    <mergeCell ref="AK18:AP18"/>
+    <mergeCell ref="AQ18:AV18"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:X17"/>
+    <mergeCell ref="Y17:AD17"/>
+    <mergeCell ref="AO25:AV25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="I26:P26"/>
+    <mergeCell ref="Q26:X26"/>
+    <mergeCell ref="Y26:AF26"/>
+    <mergeCell ref="AG26:AN26"/>
+    <mergeCell ref="AO26:AV26"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="I25:P25"/>
+    <mergeCell ref="Q25:X25"/>
+    <mergeCell ref="Y25:AF25"/>
+    <mergeCell ref="AG25:AN25"/>
+    <mergeCell ref="AE28:AJ28"/>
+    <mergeCell ref="AK28:AP28"/>
+    <mergeCell ref="AQ28:AV28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:X29"/>
+    <mergeCell ref="Y29:AD29"/>
+    <mergeCell ref="AE29:AJ29"/>
+    <mergeCell ref="AK29:AP29"/>
+    <mergeCell ref="AQ29:AV29"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AD28"/>
+    <mergeCell ref="AO41:AV41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="I42:P42"/>
+    <mergeCell ref="Q42:X42"/>
+    <mergeCell ref="Y42:AF42"/>
+    <mergeCell ref="AG42:AN42"/>
+    <mergeCell ref="AO42:AV42"/>
+    <mergeCell ref="AG41:AN41"/>
+    <mergeCell ref="A41:AF41"/>
+    <mergeCell ref="AE44:AJ44"/>
+    <mergeCell ref="AK44:AP44"/>
+    <mergeCell ref="AQ44:AV44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:L45"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="S45:X45"/>
+    <mergeCell ref="Y45:AD45"/>
+    <mergeCell ref="AE45:AJ45"/>
+    <mergeCell ref="AK45:AP45"/>
+    <mergeCell ref="AQ45:AV45"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:L44"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="S44:X44"/>
+    <mergeCell ref="Y44:AD44"/>
+    <mergeCell ref="AO51:AV51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="I52:P52"/>
+    <mergeCell ref="Q52:X52"/>
+    <mergeCell ref="Y52:AF52"/>
+    <mergeCell ref="AG52:AN52"/>
+    <mergeCell ref="AO52:AV52"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="I51:P51"/>
+    <mergeCell ref="Q51:X51"/>
+    <mergeCell ref="Y51:AF51"/>
+    <mergeCell ref="AG51:AN51"/>
+    <mergeCell ref="AE54:AJ54"/>
+    <mergeCell ref="AK54:AP54"/>
+    <mergeCell ref="AQ54:AV54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:L55"/>
+    <mergeCell ref="M55:R55"/>
+    <mergeCell ref="S55:X55"/>
+    <mergeCell ref="Y55:AD55"/>
+    <mergeCell ref="AE55:AJ55"/>
+    <mergeCell ref="AK55:AP55"/>
+    <mergeCell ref="AQ55:AV55"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:L54"/>
+    <mergeCell ref="M54:R54"/>
+    <mergeCell ref="S54:X54"/>
+    <mergeCell ref="Y54:AD54"/>
+    <mergeCell ref="AO63:AV63"/>
+    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="I64:P64"/>
+    <mergeCell ref="Q64:X64"/>
+    <mergeCell ref="Y64:AF64"/>
+    <mergeCell ref="AG64:AN64"/>
+    <mergeCell ref="AO64:AV64"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="I63:P63"/>
+    <mergeCell ref="Q63:X63"/>
+    <mergeCell ref="Y63:AF63"/>
+    <mergeCell ref="AG63:AN63"/>
+    <mergeCell ref="AE66:AJ66"/>
+    <mergeCell ref="AK66:AP66"/>
+    <mergeCell ref="AQ66:AV66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:L67"/>
+    <mergeCell ref="M67:R67"/>
+    <mergeCell ref="S67:X67"/>
+    <mergeCell ref="Y67:AD67"/>
+    <mergeCell ref="AE67:AJ67"/>
+    <mergeCell ref="AK67:AP67"/>
+    <mergeCell ref="AQ67:AV67"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:L66"/>
+    <mergeCell ref="M66:R66"/>
+    <mergeCell ref="S66:X66"/>
+    <mergeCell ref="Y66:AD66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
